--- a/data/trans_orig/Q5413-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3772</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8850</v>
+        <v>8409</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02924489725539603</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007522370891096722</v>
+        <v>0.0073544770651693</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06861204047325849</v>
+        <v>0.06518846078833886</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -765,19 +765,19 @@
         <v>8647</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3974</v>
+        <v>3965</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17636</v>
+        <v>16498</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03176574389497113</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01459937049926503</v>
+        <v>0.01456608240457527</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06478918290681539</v>
+        <v>0.06060600810995221</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -786,19 +786,19 @@
         <v>12419</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6941</v>
+        <v>6933</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20833</v>
+        <v>22708</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03095526685855154</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01730074974934385</v>
+        <v>0.01727983435784154</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05192637821193211</v>
+        <v>0.05660063368338206</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>8145</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4351</v>
+        <v>3757</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15162</v>
+        <v>14627</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06314692606337688</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03373299127006767</v>
+        <v>0.02912555052448957</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1175449482606667</v>
+        <v>0.1133989016771778</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -836,19 +836,19 @@
         <v>8510</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4260</v>
+        <v>3969</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16029</v>
+        <v>16606</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03126386104551229</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01564774743813451</v>
+        <v>0.01458221067948813</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05888597959024721</v>
+        <v>0.06100278998382151</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -857,19 +857,19 @@
         <v>16656</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9956</v>
+        <v>10052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25792</v>
+        <v>26394</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04151458064184898</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0248142879465893</v>
+        <v>0.02505454465718076</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06428737619011884</v>
+        <v>0.065787422219025</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>117073</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>108718</v>
+        <v>110391</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>121977</v>
+        <v>122479</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9076081766812271</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8428349031108481</v>
+        <v>0.8558039985174719</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9456205083331307</v>
+        <v>0.9495133860739731</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>249</v>
@@ -907,19 +907,19 @@
         <v>255055</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>245307</v>
+        <v>244531</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>261704</v>
+        <v>261831</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9369703950595166</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9011627543887519</v>
+        <v>0.8983123378797844</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9613959339440512</v>
+        <v>0.9618640909440631</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>375</v>
@@ -928,19 +928,19 @@
         <v>372128</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>360723</v>
+        <v>359569</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>381538</v>
+        <v>380702</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9275301524995995</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8991030262017693</v>
+        <v>0.8962277235800653</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9509855366234486</v>
+        <v>0.9489005803380155</v>
       </c>
     </row>
     <row r="7">
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5490</v>
+        <v>6963</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.005390389902093987</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02696481379859112</v>
+        <v>0.03420202282141418</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5427</v>
+        <v>5542</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002997297989136599</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01482065311132289</v>
+        <v>0.0151344147831781</v>
       </c>
     </row>
     <row r="9">
@@ -1095,19 +1095,19 @@
         <v>4537</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1735</v>
+        <v>1671</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10412</v>
+        <v>10224</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.027909318989673</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01067469291322445</v>
+        <v>0.01028185236189886</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0640525162778407</v>
+        <v>0.0628956018900852</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1116,19 +1116,19 @@
         <v>5540</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2267</v>
+        <v>2060</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12553</v>
+        <v>11783</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02720844807855888</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.011136070396174</v>
+        <v>0.0101174299165472</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06165658268533078</v>
+        <v>0.05787599718348882</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -1137,19 +1137,19 @@
         <v>10076</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5101</v>
+        <v>5432</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18595</v>
+        <v>18173</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0275196034012495</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01393154582734694</v>
+        <v>0.01483497474345448</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05078401611465592</v>
+        <v>0.04963272580132318</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>158018</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>152143</v>
+        <v>152331</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160820</v>
+        <v>160884</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.972090681010327</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9359474837221591</v>
+        <v>0.9371043981099134</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9893253070867755</v>
+        <v>0.9897181476381012</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>194</v>
@@ -1187,19 +1187,19 @@
         <v>196960</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>189905</v>
+        <v>189830</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>200838</v>
+        <v>200969</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9674011620193471</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9327470658952366</v>
+        <v>0.9323794976547427</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9864486763144397</v>
+        <v>0.9870905713400641</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>360</v>
@@ -1208,19 +1208,19 @@
         <v>354979</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>346117</v>
+        <v>347019</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>360052</v>
+        <v>360008</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9694830986096139</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9452797811904523</v>
+        <v>0.9477420984051086</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9833386428514106</v>
+        <v>0.9832182249663919</v>
       </c>
     </row>
     <row r="11">
@@ -1325,19 +1325,19 @@
         <v>4676</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1149</v>
+        <v>1178</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10536</v>
+        <v>10812</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0320118820009118</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00786532413708514</v>
+        <v>0.008063840050223677</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0721325464741341</v>
+        <v>0.07401852916671223</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1346,19 +1346,19 @@
         <v>4676</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11935</v>
+        <v>10955</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01606924212867028</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00404285390656106</v>
+        <v>0.004013810779939666</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04101513158755093</v>
+        <v>0.03764745820505216</v>
       </c>
     </row>
     <row r="13">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6278</v>
+        <v>7360</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01329458198089185</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04332153324280898</v>
+        <v>0.05079121316118225</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5222</v>
+        <v>5341</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007252810027653954</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03574997216015328</v>
+        <v>0.03656777251757441</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1417,19 +1417,19 @@
         <v>2986</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8058</v>
+        <v>7887</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01026174884724405</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003138567023711514</v>
+        <v>0.003144107332217044</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02769123509853809</v>
+        <v>0.02710342702400309</v>
       </c>
     </row>
     <row r="14">
@@ -1446,7 +1446,7 @@
         <v>142989</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>138638</v>
+        <v>137556</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>144916</v>
@@ -1455,7 +1455,7 @@
         <v>0.9867054180191082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9566784667571894</v>
+        <v>0.9492087868388172</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1467,19 +1467,19 @@
         <v>140332</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>134552</v>
+        <v>133563</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>144896</v>
+        <v>143840</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9607353079714342</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9211635867722605</v>
+        <v>0.9143927718875285</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9919797796532998</v>
+        <v>0.9847504387809611</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>277</v>
@@ -1488,19 +1488,19 @@
         <v>283322</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>275750</v>
+        <v>276356</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>287734</v>
+        <v>287768</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9736690090240857</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9476460030715247</v>
+        <v>0.9497306963573152</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9888318244037305</v>
+        <v>0.9889476680283198</v>
       </c>
     </row>
     <row r="15">
@@ -1808,19 +1808,19 @@
         <v>3772</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8680</v>
+        <v>9453</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007765105407031301</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001973395944480821</v>
+        <v>0.001965246764270684</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01786823551463055</v>
+        <v>0.01945748556928721</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -1829,19 +1829,19 @@
         <v>14420</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7650</v>
+        <v>8160</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23887</v>
+        <v>23585</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02181232547605324</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0115709036281253</v>
+        <v>0.01234303198696277</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03613212791295698</v>
+        <v>0.03567457832829941</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -1850,19 +1850,19 @@
         <v>18193</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10676</v>
+        <v>10979</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>28331</v>
+        <v>29060</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01586228297785347</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009308700955771522</v>
+        <v>0.009572574986252712</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0247019857646732</v>
+        <v>0.02533729714044199</v>
       </c>
     </row>
     <row r="21">
@@ -1879,19 +1879,19 @@
         <v>14609</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8367</v>
+        <v>8996</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>23020</v>
+        <v>24085</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0300713415188785</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01722382794749405</v>
+        <v>0.01851770601882408</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04738623084629028</v>
+        <v>0.0495771993370289</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -1900,19 +1900,19 @@
         <v>15109</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8365</v>
+        <v>8494</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23881</v>
+        <v>23983</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02285449286535002</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01265312987760892</v>
+        <v>0.01284736552950267</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03612296061430088</v>
+        <v>0.03627623621042771</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>30</v>
@@ -1921,19 +1921,19 @@
         <v>29718</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20540</v>
+        <v>19547</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>42236</v>
+        <v>42023</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02591136504223477</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01790932189000957</v>
+        <v>0.01704352322327454</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03682572192724819</v>
+        <v>0.03664026404724061</v>
       </c>
     </row>
     <row r="22">
@@ -1950,19 +1950,19 @@
         <v>467423</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>458086</v>
+        <v>457240</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>473871</v>
+        <v>474415</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9621635530740902</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9429432279380832</v>
+        <v>0.9412030061495266</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9754373115892273</v>
+        <v>0.9765554955212566</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>617</v>
@@ -1971,19 +1971,19 @@
         <v>631582</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>620003</v>
+        <v>619953</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>641733</v>
+        <v>641374</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9553331816585967</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9378191475083253</v>
+        <v>0.9377431660729224</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.97068703000826</v>
+        <v>0.9701435324519331</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1103</v>
@@ -1992,19 +1992,19 @@
         <v>1099005</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1083521</v>
+        <v>1084965</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1111670</v>
+        <v>1112065</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9582263519799118</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9447253343428528</v>
+        <v>0.9459847103206842</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9692692571054903</v>
+        <v>0.9696136205909279</v>
       </c>
     </row>
     <row r="23">
@@ -2336,19 +2336,19 @@
         <v>6488</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2215</v>
+        <v>2202</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13237</v>
+        <v>13037</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04717113018058419</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01610160554695701</v>
+        <v>0.01600863954447497</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09624519503226239</v>
+        <v>0.09479222265028184</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2357,19 +2357,19 @@
         <v>11948</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6041</v>
+        <v>6116</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19588</v>
+        <v>20393</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05541026306154401</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02801381167655202</v>
+        <v>0.02836375980097353</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09083738874423243</v>
+        <v>0.09457445222946942</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -2378,19 +2378,19 @@
         <v>18436</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10923</v>
+        <v>10824</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28116</v>
+        <v>28437</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05220171450932443</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03092975154506404</v>
+        <v>0.03064831167728568</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07961059734287396</v>
+        <v>0.08052095765435603</v>
       </c>
     </row>
     <row r="5">
@@ -2407,19 +2407,19 @@
         <v>8491</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3816</v>
+        <v>4120</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15411</v>
+        <v>15412</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06173555580645126</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02774639590508629</v>
+        <v>0.02995469010629025</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1120514271424191</v>
+        <v>0.112063821160104</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -2428,19 +2428,19 @@
         <v>21519</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13673</v>
+        <v>13657</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31210</v>
+        <v>31802</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09979325747915396</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06340865559358171</v>
+        <v>0.06333344641036436</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1447360197793823</v>
+        <v>0.1474808845206774</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -2449,19 +2449,19 @@
         <v>30009</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21152</v>
+        <v>20092</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41850</v>
+        <v>41376</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08497252508327961</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05989120982188471</v>
+        <v>0.05688975360968954</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1184977949419044</v>
+        <v>0.1171556905137939</v>
       </c>
     </row>
     <row r="6">
@@ -2478,19 +2478,19 @@
         <v>122555</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>113716</v>
+        <v>113831</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>129048</v>
+        <v>129028</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8910933140129645</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8268271964667075</v>
+        <v>0.827663855601719</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9383063076892912</v>
+        <v>0.9381593648726355</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>170</v>
@@ -2499,19 +2499,19 @@
         <v>182167</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>170019</v>
+        <v>169766</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>192075</v>
+        <v>191847</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.844796479459302</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7884612287439532</v>
+        <v>0.7872868083594169</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8907431579440165</v>
+        <v>0.8896873874374018</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>279</v>
@@ -2520,19 +2520,19 @@
         <v>304722</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>289923</v>
+        <v>291221</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>316689</v>
+        <v>317342</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.862825760407396</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.820923450706845</v>
+        <v>0.8245991017336656</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8967120245049814</v>
+        <v>0.8985596227711189</v>
       </c>
     </row>
     <row r="7">
@@ -2624,19 +2624,19 @@
         <v>4434</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>985</v>
+        <v>1001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12403</v>
+        <v>13273</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02570973913599356</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00571057907256192</v>
+        <v>0.00580448134223746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07191173824461466</v>
+        <v>0.07695822541527053</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -2645,19 +2645,19 @@
         <v>13235</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7318</v>
+        <v>7397</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22162</v>
+        <v>22023</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05356934115966057</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02961851724726652</v>
+        <v>0.02993734603358259</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08970185803471808</v>
+        <v>0.08913577834219095</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -2666,19 +2666,19 @@
         <v>17669</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10137</v>
+        <v>11059</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30706</v>
+        <v>29412</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04211637388023811</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02416320079396912</v>
+        <v>0.02635969111124333</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07318984907767377</v>
+        <v>0.07010602883712554</v>
       </c>
     </row>
     <row r="9">
@@ -2695,19 +2695,19 @@
         <v>12581</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6507</v>
+        <v>6417</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22548</v>
+        <v>23250</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07294722177139559</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03772683442421036</v>
+        <v>0.03720810109881377</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1307382717641207</v>
+        <v>0.134807745740219</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>28</v>
@@ -2716,19 +2716,19 @@
         <v>30741</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>21346</v>
+        <v>20539</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>43562</v>
+        <v>41975</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1244224756506276</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.086397087407831</v>
+        <v>0.08313028304451149</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1763155729282384</v>
+        <v>0.1698946795429616</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>38</v>
@@ -2737,19 +2737,19 @@
         <v>43322</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>31503</v>
+        <v>30425</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>58819</v>
+        <v>57427</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1032612114704005</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07509056491883824</v>
+        <v>0.07252089975391676</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1401992568167573</v>
+        <v>0.1368813546158411</v>
       </c>
     </row>
     <row r="10">
@@ -2766,19 +2766,19 @@
         <v>155455</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>144463</v>
+        <v>143783</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>163028</v>
+        <v>163033</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9013430390926108</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8376110319987207</v>
+        <v>0.8336692678022197</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9452558025105542</v>
+        <v>0.9452818886899857</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>196</v>
@@ -2787,19 +2787,19 @@
         <v>203091</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>189424</v>
+        <v>189917</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>215052</v>
+        <v>214948</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8220081831897118</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7666896281419668</v>
+        <v>0.7686863241394207</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8704192843792994</v>
+        <v>0.869997224522554</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>340</v>
@@ -2808,19 +2808,19 @@
         <v>358545</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>342251</v>
+        <v>341087</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>373218</v>
+        <v>371888</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8546224146493614</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8157855832503003</v>
+        <v>0.8130108873497155</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8895975746524579</v>
+        <v>0.8864264289213352</v>
       </c>
     </row>
     <row r="11">
@@ -2912,19 +2912,19 @@
         <v>4081</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9526</v>
+        <v>9923</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02455126791904256</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00612158926883435</v>
+        <v>0.006146669860906406</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05730459610043372</v>
+        <v>0.05969470678877901</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -2933,19 +2933,19 @@
         <v>8450</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3246</v>
+        <v>3261</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17598</v>
+        <v>17770</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04399318622413016</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01689742250817241</v>
+        <v>0.01697700795763641</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0916226935256834</v>
+        <v>0.09252002678505448</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -2954,19 +2954,19 @@
         <v>12531</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6241</v>
+        <v>6312</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21850</v>
+        <v>21356</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03497316554918876</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01741772462688618</v>
+        <v>0.01761687660064326</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06098223425791166</v>
+        <v>0.0596022550713825</v>
       </c>
     </row>
     <row r="13">
@@ -2983,19 +2983,19 @@
         <v>6074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2159</v>
+        <v>2099</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13195</v>
+        <v>12769</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03653945918676588</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01298525469964958</v>
+        <v>0.01262532741692468</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07937278405315015</v>
+        <v>0.07681358314030874</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -3004,19 +3004,19 @@
         <v>7456</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3140</v>
+        <v>3075</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14110</v>
+        <v>14127</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03882142188002149</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01634998643454176</v>
+        <v>0.01600750992462812</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07346081548046041</v>
+        <v>0.07355264492754875</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -3025,19 +3025,19 @@
         <v>13531</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7409</v>
+        <v>7956</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21527</v>
+        <v>22198</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03776271201664221</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02067692310112315</v>
+        <v>0.02220506341274967</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06007918195222406</v>
+        <v>0.061953424138113</v>
       </c>
     </row>
     <row r="14">
@@ -3054,19 +3054,19 @@
         <v>156080</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>148352</v>
+        <v>148623</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>161110</v>
+        <v>161217</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9389092728941916</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.892421433666296</v>
+        <v>0.8940522563901545</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9691703918042279</v>
+        <v>0.9698133442605928</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>165</v>
@@ -3075,19 +3075,19 @@
         <v>176165</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>166687</v>
+        <v>165776</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>183360</v>
+        <v>182580</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9171853918958484</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8678411289627237</v>
+        <v>0.8630988140692358</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9546484949507487</v>
+        <v>0.9505856227985744</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>306</v>
@@ -3096,19 +3096,19 @@
         <v>332244</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>320946</v>
+        <v>321053</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>341691</v>
+        <v>340648</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.927264122434169</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8957328306515042</v>
+        <v>0.896031107524405</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9536283061148615</v>
+        <v>0.9507174511082088</v>
       </c>
     </row>
     <row r="15">
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5109</v>
+        <v>5102</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01321746199640529</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06541277240868623</v>
+        <v>0.06532447397740447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6830</v>
+        <v>7659</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02621535437683424</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08030472267390058</v>
+        <v>0.0900533679508267</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -3242,19 +3242,19 @@
         <v>3262</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8879</v>
+        <v>8780</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01999339460504422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006290909758412864</v>
+        <v>0.006271280688476343</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05442450671716392</v>
+        <v>0.05381448661784786</v>
       </c>
     </row>
     <row r="17">
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7523</v>
+        <v>6511</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02754511593573539</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09633272378593233</v>
+        <v>0.08336942085127846</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -3292,19 +3292,19 @@
         <v>9853</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4631</v>
+        <v>4527</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17441</v>
+        <v>18322</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1158522315540057</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05444864020398098</v>
+        <v>0.05322442994194195</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2050699399331654</v>
+        <v>0.2154216496636037</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -3313,19 +3313,19 @@
         <v>12004</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6523</v>
+        <v>6548</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20406</v>
+        <v>21211</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07358050742687028</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03998189886421553</v>
+        <v>0.04013685540358956</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1250789327759263</v>
+        <v>0.1300137764994858</v>
       </c>
     </row>
     <row r="18">
@@ -3342,19 +3342,19 @@
         <v>74914</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>70090</v>
+        <v>70415</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>78097</v>
+        <v>77095</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9592374220678593</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8974703392310256</v>
+        <v>0.9016317369695801</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1</v>
+        <v>0.9871637991441302</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>64</v>
@@ -3363,19 +3363,19 @@
         <v>72967</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>65138</v>
+        <v>63813</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>78523</v>
+        <v>78426</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8579324140691601</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7658843456474801</v>
+        <v>0.7503041637244917</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9232619696629443</v>
+        <v>0.9221136762730108</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>129</v>
@@ -3384,19 +3384,19 @@
         <v>147880</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>139222</v>
+        <v>138844</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>154426</v>
+        <v>154393</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9064260979680855</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8533587980875589</v>
+        <v>0.8510433734262663</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9465484753087083</v>
+        <v>0.9463471099519263</v>
       </c>
     </row>
     <row r="19">
@@ -3488,19 +3488,19 @@
         <v>16035</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9400</v>
+        <v>8857</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26555</v>
+        <v>26323</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0289270540717508</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01695661001185377</v>
+        <v>0.0159774339263772</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04790379929278313</v>
+        <v>0.04748642620719431</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -3509,19 +3509,19 @@
         <v>35863</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24898</v>
+        <v>24988</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49613</v>
+        <v>49257</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04847515156214666</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03365385632784358</v>
+        <v>0.03377639401338139</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06706028399881024</v>
+        <v>0.06657950762353529</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -3530,19 +3530,19 @@
         <v>51898</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>38124</v>
+        <v>37783</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>68314</v>
+        <v>67761</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04010198542443771</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02945894792724881</v>
+        <v>0.02919502960982508</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05278633545252223</v>
+        <v>0.05235920364090986</v>
       </c>
     </row>
     <row r="21">
@@ -3559,19 +3559,19 @@
         <v>29297</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19594</v>
+        <v>19660</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>41830</v>
+        <v>41400</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05285110383782608</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03534746893636708</v>
+        <v>0.03546620070404275</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07546052489765542</v>
+        <v>0.07468499970488168</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>64</v>
@@ -3580,19 +3580,19 @@
         <v>69569</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>55237</v>
+        <v>55398</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>89777</v>
+        <v>87623</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09403505477311914</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07466331807807307</v>
+        <v>0.07488076731580613</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1213493915337873</v>
+        <v>0.1184378011295053</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>90</v>
@@ -3601,19 +3601,19 @@
         <v>98866</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>79128</v>
+        <v>79950</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>118803</v>
+        <v>118963</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07639446015474843</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06114243702680277</v>
+        <v>0.06177758544805854</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09179961622310367</v>
+        <v>0.09192320718199101</v>
       </c>
     </row>
     <row r="22">
@@ -3630,19 +3630,19 @@
         <v>509002</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>493866</v>
+        <v>494415</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>521398</v>
+        <v>520925</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9182218420904231</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.890918478440298</v>
+        <v>0.8919083913703862</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.940584866555774</v>
+        <v>0.9397311008800954</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>595</v>
@@ -3651,19 +3651,19 @@
         <v>634389</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>612612</v>
+        <v>615493</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>652066</v>
+        <v>652025</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8574897936647342</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8280541702875173</v>
+        <v>0.8319486261405823</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8813837734394241</v>
+        <v>0.881327764140047</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1054</v>
@@ -3672,19 +3672,19 @@
         <v>1143391</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1117495</v>
+        <v>1117253</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1167355</v>
+        <v>1164525</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8835035544208139</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8634941105576177</v>
+        <v>0.863306875004387</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9020212159541574</v>
+        <v>0.8998339166679631</v>
       </c>
     </row>
     <row r="23">
@@ -4016,19 +4016,19 @@
         <v>3516</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8149</v>
+        <v>8841</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0211249929520771</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005032988852740221</v>
+        <v>0.005081280162816951</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04895890712832614</v>
+        <v>0.05311290368842694</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -4037,19 +4037,19 @@
         <v>11241</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5045</v>
+        <v>5095</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20032</v>
+        <v>19851</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04317133056874801</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01937436211673227</v>
+        <v>0.01956821545527631</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07693348674910036</v>
+        <v>0.07623942480651723</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -4058,19 +4058,19 @@
         <v>14757</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8385</v>
+        <v>7785</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23874</v>
+        <v>23704</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03457378366387732</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01964393506354418</v>
+        <v>0.01823917530106663</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05593276096608153</v>
+        <v>0.05553398549207859</v>
       </c>
     </row>
     <row r="5">
@@ -4087,19 +4087,19 @@
         <v>9354</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4936</v>
+        <v>4973</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16651</v>
+        <v>15978</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0561928363070877</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02965201273601591</v>
+        <v>0.0298734357630785</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1000327495659682</v>
+        <v>0.0959916940639001</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -4108,19 +4108,19 @@
         <v>19504</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11901</v>
+        <v>11929</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30624</v>
+        <v>31038</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07490617831817005</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04570768675384873</v>
+        <v>0.04581415982828202</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1176155175790714</v>
+        <v>0.1192037404261535</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -4129,19 +4129,19 @@
         <v>28857</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19499</v>
+        <v>19928</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42282</v>
+        <v>40948</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06760842036468995</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04568417603344806</v>
+        <v>0.04668824977343837</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09905954300820863</v>
+        <v>0.09593428244957154</v>
       </c>
     </row>
     <row r="6">
@@ -4158,19 +4158,19 @@
         <v>153584</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>146119</v>
+        <v>145871</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>158994</v>
+        <v>158983</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9226821707408353</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8778361631180919</v>
+        <v>0.8763445407434601</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9551815936090764</v>
+        <v>0.9551152039423589</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>197</v>
@@ -4179,19 +4179,19 @@
         <v>229633</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>217623</v>
+        <v>216346</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>240056</v>
+        <v>238450</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.881922491113082</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8357956837323874</v>
+        <v>0.8308904232540936</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9219515571866883</v>
+        <v>0.9157836283559084</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>358</v>
@@ -4200,19 +4200,19 @@
         <v>383217</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>367862</v>
+        <v>368535</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>394794</v>
+        <v>395650</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8978177959714327</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8618431480052178</v>
+        <v>0.8634192029017425</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9249401933714924</v>
+        <v>0.9269463634008361</v>
       </c>
     </row>
     <row r="7">
@@ -4307,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3128</v>
+        <v>4212</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004500550446721904</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01842605860979966</v>
+        <v>0.02481162389801188</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5265</v>
+        <v>5783</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004698708405612392</v>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02384514053580954</v>
+        <v>0.02619040252744086</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6651</v>
+        <v>6160</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004612577610967028</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01702982626764536</v>
+        <v>0.01577124952027441</v>
       </c>
     </row>
     <row r="9">
@@ -4375,19 +4375,19 @@
         <v>6112</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2483</v>
+        <v>2630</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11504</v>
+        <v>12218</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03600466027894981</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01462589956574924</v>
+        <v>0.01548929123075546</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06776522043468655</v>
+        <v>0.07196857493729537</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -4396,19 +4396,19 @@
         <v>15704</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8611</v>
+        <v>8742</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>25400</v>
+        <v>26750</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07112210568767818</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03899724641269888</v>
+        <v>0.03958948228921726</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1150334102846501</v>
+        <v>0.121145928725868</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -4417,19 +4417,19 @@
         <v>21816</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>13376</v>
+        <v>13223</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>32757</v>
+        <v>32945</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05585805323222996</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03424883148743456</v>
+        <v>0.0338555120899377</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08386953485238963</v>
+        <v>0.08435112635281662</v>
       </c>
     </row>
     <row r="10">
@@ -4446,19 +4446,19 @@
         <v>162887</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>157253</v>
+        <v>156951</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>166638</v>
+        <v>166481</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9594947892743283</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9263093850929106</v>
+        <v>0.9245287777022192</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9815935448155393</v>
+        <v>0.9806663176725271</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>175</v>
@@ -4467,19 +4467,19 @@
         <v>204063</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>193618</v>
+        <v>192867</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>211125</v>
+        <v>211065</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9241791859067094</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.876872695572528</v>
+        <v>0.873471829282752</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9561582393676487</v>
+        <v>0.9558901615226271</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>350</v>
@@ -4488,19 +4488,19 @@
         <v>366950</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>355981</v>
+        <v>355759</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>376162</v>
+        <v>375346</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9395293691568031</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9114449723547369</v>
+        <v>0.9108756352737201</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9631154254181695</v>
+        <v>0.9610268914747582</v>
       </c>
     </row>
     <row r="11">
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5643</v>
+        <v>5077</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.00641089864477355</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03622399138596364</v>
+        <v>0.03259146577737741</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -4613,19 +4613,19 @@
         <v>7018</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2490</v>
+        <v>2445</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15487</v>
+        <v>15382</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03812043637096726</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01352609347992215</v>
+        <v>0.01327856442026602</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08412132424903447</v>
+        <v>0.0835516003031475</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -4634,19 +4634,19 @@
         <v>8017</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2919</v>
+        <v>3252</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16759</v>
+        <v>17154</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02358743787706135</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008589488186953466</v>
+        <v>0.009568553540634779</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04930841869644934</v>
+        <v>0.05047224893846151</v>
       </c>
     </row>
     <row r="13">
@@ -4663,19 +4663,19 @@
         <v>7265</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3365</v>
+        <v>3027</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14847</v>
+        <v>13766</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0466396984696815</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02160322895868499</v>
+        <v>0.01943361672478974</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09531387915051576</v>
+        <v>0.08837050212007658</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -4684,19 +4684,19 @@
         <v>13670</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7622</v>
+        <v>7009</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24714</v>
+        <v>24226</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07424879202542384</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04140214268386253</v>
+        <v>0.03807008606611637</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1342402935764835</v>
+        <v>0.1315859030205852</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -4705,19 +4705,19 @@
         <v>20935</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13044</v>
+        <v>11726</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33539</v>
+        <v>32477</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06159509399524841</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03837856209198572</v>
+        <v>0.03450048015165266</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09867930528582652</v>
+        <v>0.09555370139711461</v>
       </c>
     </row>
     <row r="14">
@@ -4734,19 +4734,19 @@
         <v>147507</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>139687</v>
+        <v>140842</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>151751</v>
+        <v>152281</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.946949402885545</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.896743676660553</v>
+        <v>0.9041575585484235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9741906282572008</v>
+        <v>0.9775921536974793</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>138</v>
@@ -4755,19 +4755,19 @@
         <v>163418</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>151803</v>
+        <v>151500</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>172037</v>
+        <v>171701</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8876307716036089</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8245437648180521</v>
+        <v>0.8228952000506944</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9344458286987658</v>
+        <v>0.9326229350263654</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>295</v>
@@ -4776,19 +4776,19 @@
         <v>310925</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>296414</v>
+        <v>296632</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>320333</v>
+        <v>320750</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9148174681276903</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8721209858838852</v>
+        <v>0.8727615805524312</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9424981850840067</v>
+        <v>0.9437238660381184</v>
       </c>
     </row>
     <row r="15">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6342</v>
+        <v>6442</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0205142297087167</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07211627540437911</v>
+        <v>0.07324939254871317</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5454</v>
+        <v>7040</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01193091301084237</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05119186128110201</v>
+        <v>0.06607733212505765</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -4922,19 +4922,19 @@
         <v>3075</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8663</v>
+        <v>8597</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0158123231634379</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004498544354576595</v>
+        <v>0.00458795386773274</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04454311025374518</v>
+        <v>0.04420271903562085</v>
       </c>
     </row>
     <row r="17">
@@ -4951,19 +4951,19 @@
         <v>5041</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2067</v>
+        <v>2117</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10368</v>
+        <v>9928</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05732097535307137</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02349990391715809</v>
+        <v>0.02407287301696823</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1178871483556618</v>
+        <v>0.1128910448153267</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7644</v>
+        <v>6992</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02040424262400294</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07174919218911688</v>
+        <v>0.06563212506445483</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -4993,19 +4993,19 @@
         <v>7215</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3449</v>
+        <v>3293</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13981</v>
+        <v>14051</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03709813686779188</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01773255489057576</v>
+        <v>0.01693159202609397</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07188621968012911</v>
+        <v>0.07224919139026098</v>
       </c>
     </row>
     <row r="18">
@@ -5022,19 +5022,19 @@
         <v>81100</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>75146</v>
+        <v>76112</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>84715</v>
+        <v>84898</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9221647949382119</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8544709879696768</v>
+        <v>0.8654456016934102</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9632747723026275</v>
+        <v>0.9653481721353455</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>85</v>
@@ -5043,19 +5043,19 @@
         <v>103091</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>97626</v>
+        <v>97330</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>105586</v>
+        <v>105547</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9676648443651547</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9163626402147252</v>
+        <v>0.9135882577853979</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9910862677594352</v>
+        <v>0.9907126585948428</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>169</v>
@@ -5064,19 +5064,19 @@
         <v>184191</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>176999</v>
+        <v>176793</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>189302</v>
+        <v>188889</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9470895399687702</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9101074490556087</v>
+        <v>0.9090486796440151</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9733691893395291</v>
+        <v>0.9712470802156956</v>
       </c>
     </row>
     <row r="19">
@@ -5168,19 +5168,19 @@
         <v>7083</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3484</v>
+        <v>3374</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14634</v>
+        <v>14043</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01221369196465325</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006007766181499931</v>
+        <v>0.005817748087559691</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02523392695304102</v>
+        <v>0.02421437885681828</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -5189,19 +5189,19 @@
         <v>20568</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11798</v>
+        <v>11183</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33002</v>
+        <v>32094</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02664805041898076</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01528582671360166</v>
+        <v>0.01448885493188941</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04275840155852099</v>
+        <v>0.04158231666655275</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>24</v>
@@ -5210,19 +5210,19 @@
         <v>27651</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18040</v>
+        <v>18356</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40601</v>
+        <v>40876</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02045539418240576</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01334544465604916</v>
+        <v>0.01357906595686953</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03003567952163051</v>
+        <v>0.03023884831868421</v>
       </c>
     </row>
     <row r="21">
@@ -5239,19 +5239,19 @@
         <v>27772</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18637</v>
+        <v>19022</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38351</v>
+        <v>38433</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04788827006273024</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03213722129722215</v>
+        <v>0.03280025621529653</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06612962993090793</v>
+        <v>0.06627134672535202</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>39</v>
@@ -5260,19 +5260,19 @@
         <v>51051</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>37372</v>
+        <v>36532</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>69180</v>
+        <v>68991</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.066143832750249</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04842038245536236</v>
+        <v>0.04733209445063727</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0896311966147203</v>
+        <v>0.0893874978307138</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>70</v>
@@ -5281,19 +5281,19 @@
         <v>78823</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>62660</v>
+        <v>62150</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>98852</v>
+        <v>99531</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05831179612134322</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04635413833795753</v>
+        <v>0.04597708630750602</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07312852351901679</v>
+        <v>0.07363106831576235</v>
       </c>
     </row>
     <row r="22">
@@ -5310,19 +5310,19 @@
         <v>545079</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>533214</v>
+        <v>533431</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>555156</v>
+        <v>554747</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9398980379726165</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9194383611553972</v>
+        <v>0.9198125169221907</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9572749467813996</v>
+        <v>0.956569356487642</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>595</v>
@@ -5331,19 +5331,19 @@
         <v>700205</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>680468</v>
+        <v>677790</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>716710</v>
+        <v>715975</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9072081168307702</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8816366870043645</v>
+        <v>0.8781668456960654</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9285920351012669</v>
+        <v>0.927640595280429</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1172</v>
@@ -5352,19 +5352,19 @@
         <v>1245284</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1225952</v>
+        <v>1221998</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1266761</v>
+        <v>1263009</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.921232809696251</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9069316817821904</v>
+        <v>0.9040064340775538</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9371211912444916</v>
+        <v>0.9343453743478549</v>
       </c>
     </row>
     <row r="23">
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5300</v>
+        <v>5209</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02305785657892718</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07878576438934584</v>
+        <v>0.0774194898268931</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -5717,19 +5717,19 @@
         <v>5376</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2700</v>
+        <v>2511</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10357</v>
+        <v>10113</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03783495437824025</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01900072860483353</v>
+        <v>0.01766895613954554</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07288394097922035</v>
+        <v>0.07117226783009607</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -5738,19 +5738,19 @@
         <v>6927</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3435</v>
+        <v>3301</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11375</v>
+        <v>11903</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03308667656042529</v>
+        <v>0.0330866765604253</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0164038913639739</v>
+        <v>0.015766170402073</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05433104998616939</v>
+        <v>0.05685033150717494</v>
       </c>
     </row>
     <row r="5">
@@ -5767,19 +5767,19 @@
         <v>5148</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2329</v>
+        <v>2030</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9881</v>
+        <v>10271</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.076522828331118</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03461404312714385</v>
+        <v>0.03017405683625443</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.146875535124781</v>
+        <v>0.1526705901049166</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -5788,19 +5788,19 @@
         <v>15805</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11126</v>
+        <v>10999</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22132</v>
+        <v>22249</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.111227081585802</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0782985530227151</v>
+        <v>0.07740243551184624</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1557541293637101</v>
+        <v>0.1565756401531873</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -5809,19 +5809,19 @@
         <v>20953</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14128</v>
+        <v>14958</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28666</v>
+        <v>28934</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1000756743100981</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0674784064620713</v>
+        <v>0.07144233116778632</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1369116455455202</v>
+        <v>0.1381937574920153</v>
       </c>
     </row>
     <row r="6">
@@ -5838,19 +5838,19 @@
         <v>60578</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55183</v>
+        <v>55754</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>64145</v>
+        <v>64172</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9004193150899549</v>
+        <v>0.900419315089955</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.820238046196723</v>
+        <v>0.8287250982615745</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9534397010343788</v>
+        <v>0.9538427490896111</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>226</v>
@@ -5859,19 +5859,19 @@
         <v>120915</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>113910</v>
+        <v>114399</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>126460</v>
+        <v>126627</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8509379640359577</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8016402079182611</v>
+        <v>0.8050806895589524</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8899628503462541</v>
+        <v>0.8911351986837205</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>311</v>
@@ -5880,19 +5880,19 @@
         <v>181492</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>173333</v>
+        <v>172922</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>189133</v>
+        <v>188735</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.8668376491294765</v>
+        <v>0.8668376491294766</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8278665896083987</v>
+        <v>0.8259019163842836</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9033316528860216</v>
+        <v>0.9014276301165297</v>
       </c>
     </row>
     <row r="7">
@@ -5984,19 +5984,19 @@
         <v>3537</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8594</v>
+        <v>7627</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01756969987453645</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006866805518925581</v>
+        <v>0.006933292082330748</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04269222125787005</v>
+        <v>0.03788761744726711</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -6005,19 +6005,19 @@
         <v>8515</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4941</v>
+        <v>4480</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13802</v>
+        <v>14012</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02816549565471644</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01634344271540668</v>
+        <v>0.01481630018618519</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04564944411679614</v>
+        <v>0.04634649265695091</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>21</v>
@@ -6026,19 +6026,19 @@
         <v>12052</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7608</v>
+        <v>7070</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18385</v>
+        <v>18626</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02393037992265337</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0151061255107267</v>
+        <v>0.01403814928431038</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03650391654657381</v>
+        <v>0.03698353266256359</v>
       </c>
     </row>
     <row r="9">
@@ -6055,19 +6055,19 @@
         <v>12242</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7185</v>
+        <v>7707</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17962</v>
+        <v>18423</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06081117419743002</v>
+        <v>0.06081117419743003</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03569412121507445</v>
+        <v>0.03828369992741516</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08922606487983435</v>
+        <v>0.09152037380617827</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>56</v>
@@ -6076,19 +6076,19 @@
         <v>27423</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>20626</v>
+        <v>20376</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35342</v>
+        <v>35026</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.09070403623829425</v>
+        <v>0.09070403623829426</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06822188818828435</v>
+        <v>0.06739611716434586</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1168953745641808</v>
+        <v>0.1158520866867113</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>76</v>
@@ -6097,19 +6097,19 @@
         <v>39665</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30703</v>
+        <v>31359</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>49359</v>
+        <v>48599</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07875592654157222</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06096159669221569</v>
+        <v>0.06226545007798282</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09800439752340995</v>
+        <v>0.0964950832361299</v>
       </c>
     </row>
     <row r="10">
@@ -6126,19 +6126,19 @@
         <v>185526</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>179185</v>
+        <v>178461</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191309</v>
+        <v>190708</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9216191259280335</v>
+        <v>0.9216191259280336</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8901194922529495</v>
+        <v>0.8865267721234377</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9503492763350342</v>
+        <v>0.9473617454640418</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>497</v>
@@ -6147,19 +6147,19 @@
         <v>266398</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>256986</v>
+        <v>257280</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>273916</v>
+        <v>274461</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8811304681069893</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8499993733269954</v>
+        <v>0.8509720767161694</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9059940253594715</v>
+        <v>0.9077976117260979</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>766</v>
@@ -6168,19 +6168,19 @@
         <v>451924</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>439958</v>
+        <v>441045</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>461679</v>
+        <v>461166</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8973136935357744</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8735554990582195</v>
+        <v>0.8757138455089184</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.91668362939714</v>
+        <v>0.9156637837812007</v>
       </c>
     </row>
     <row r="11">
@@ -6275,16 +6275,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4621</v>
+        <v>6079</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.005535552393353233</v>
+        <v>0.005535552393353234</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0201506684279568</v>
+        <v>0.02651003609403903</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -6293,19 +6293,19 @@
         <v>5623</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2865</v>
+        <v>2971</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9610</v>
+        <v>9986</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02377384300138121</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01211515543280329</v>
+        <v>0.01256036286456483</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04063140901179182</v>
+        <v>0.0422225845122504</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -6314,19 +6314,19 @@
         <v>6892</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3373</v>
+        <v>3712</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11362</v>
+        <v>11545</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01479553751482701</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007241102155179719</v>
+        <v>0.007968715576238</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0243902762518763</v>
+        <v>0.02478307774810825</v>
       </c>
     </row>
     <row r="13">
@@ -6343,19 +6343,19 @@
         <v>6354</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3308</v>
+        <v>3246</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11244</v>
+        <v>11261</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02770748729848807</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01442627385872135</v>
+        <v>0.0141561653976372</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04903330835682125</v>
+        <v>0.04910533048933948</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -6364,19 +6364,19 @@
         <v>14271</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9524</v>
+        <v>9549</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21738</v>
+        <v>21325</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06033956114220377</v>
+        <v>0.06033956114220378</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04027001640031758</v>
+        <v>0.04037640848396847</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09191288568569631</v>
+        <v>0.0901668776402795</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -6385,19 +6385,19 @@
         <v>20625</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14514</v>
+        <v>14010</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27814</v>
+        <v>28067</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04427551578152107</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03115722731990463</v>
+        <v>0.03007515255590155</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05970930721914098</v>
+        <v>0.06025253045025279</v>
       </c>
     </row>
     <row r="14">
@@ -6414,19 +6414,19 @@
         <v>221691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>216336</v>
+        <v>216069</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>225277</v>
+        <v>225255</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9667569603081586</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9434046231469716</v>
+        <v>0.9422396491147441</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9823959223699996</v>
+        <v>0.9822976595983918</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>412</v>
@@ -6435,19 +6435,19 @@
         <v>216615</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>208533</v>
+        <v>209288</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>222272</v>
+        <v>222825</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9158865958564151</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.881711723042837</v>
+        <v>0.8849040539712173</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9398015717645236</v>
+        <v>0.9421399088874339</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>728</v>
@@ -6456,19 +6456,19 @@
         <v>438306</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>430223</v>
+        <v>429675</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>445559</v>
+        <v>445535</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9409289467036519</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9235756196755674</v>
+        <v>0.9223996243961168</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9564994104474387</v>
+        <v>0.9564464024441717</v>
       </c>
     </row>
     <row r="15">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6511</v>
+        <v>6292</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007922273147949648</v>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03059063458953095</v>
+        <v>0.02956182722641855</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -6581,19 +6581,19 @@
         <v>2464</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>782</v>
+        <v>916</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5307</v>
+        <v>5418</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01182256448827161</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003753896456928477</v>
+        <v>0.004396112051622146</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02546766467056691</v>
+        <v>0.02599905838449858</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -6602,19 +6602,19 @@
         <v>4150</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1648</v>
+        <v>1871</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8701</v>
+        <v>8143</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009851718945465287</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00391137562899522</v>
+        <v>0.004440928923294668</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0206573278650493</v>
+        <v>0.0193329000605948</v>
       </c>
     </row>
     <row r="17">
@@ -6631,19 +6631,19 @@
         <v>6268</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2913</v>
+        <v>3048</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12509</v>
+        <v>12437</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02944851657715878</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01368819674680092</v>
+        <v>0.01432004810870945</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05877046681913165</v>
+        <v>0.05843358863116624</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -6652,19 +6652,19 @@
         <v>12209</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8013</v>
+        <v>7477</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19105</v>
+        <v>19757</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05858971662560589</v>
+        <v>0.05858971662560588</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03845348419412033</v>
+        <v>0.03588016799966322</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09168613309789138</v>
+        <v>0.09481341579046353</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -6673,19 +6673,19 @@
         <v>18477</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12306</v>
+        <v>12343</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27269</v>
+        <v>26711</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04386445658316802</v>
+        <v>0.04386445658316803</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02921407873860916</v>
+        <v>0.02930262723842464</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06473700016420615</v>
+        <v>0.06341332998711777</v>
       </c>
     </row>
     <row r="18">
@@ -6702,19 +6702,19 @@
         <v>204892</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>197406</v>
+        <v>198323</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>208658</v>
+        <v>208729</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9626292102748917</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9274616348393954</v>
+        <v>0.9317674894000517</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9803246879337398</v>
+        <v>0.980657059018185</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>369</v>
@@ -6723,19 +6723,19 @@
         <v>193703</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>186364</v>
+        <v>185917</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>198335</v>
+        <v>199154</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9295877188861225</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8943675397571355</v>
+        <v>0.8922247856818932</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9518183916971295</v>
+        <v>0.9557458117294632</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>660</v>
@@ -6744,19 +6744,19 @@
         <v>398594</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>389231</v>
+        <v>390044</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>405587</v>
+        <v>405471</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9462838244713666</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9240553086345238</v>
+        <v>0.9259857087172112</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9628871047856207</v>
+        <v>0.9626103656634842</v>
       </c>
     </row>
     <row r="19">
@@ -6848,19 +6848,19 @@
         <v>8044</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4341</v>
+        <v>4369</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14148</v>
+        <v>13949</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01131736862670868</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006107118833349304</v>
+        <v>0.006146830523805377</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01990641178574257</v>
+        <v>0.01962546135607356</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>40</v>
@@ -6869,19 +6869,19 @@
         <v>21978</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16058</v>
+        <v>15929</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>31465</v>
+        <v>29971</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02471325861062733</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01805655942518638</v>
+        <v>0.01791203894785987</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0353812992768081</v>
+        <v>0.03370156284351088</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>52</v>
@@ -6890,19 +6890,19 @@
         <v>30022</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22592</v>
+        <v>22117</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>38809</v>
+        <v>39778</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01876283825829389</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01411980317011902</v>
+        <v>0.0138225450286953</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02425445879329031</v>
+        <v>0.02486036591146649</v>
       </c>
     </row>
     <row r="21">
@@ -6919,19 +6919,19 @@
         <v>30011</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21604</v>
+        <v>21473</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>39895</v>
+        <v>40138</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04222561300840343</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03039651849885252</v>
+        <v>0.03021177395860194</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05613152862000863</v>
+        <v>0.05647363119820863</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>133</v>
@@ -6940,19 +6940,19 @@
         <v>69708</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>57182</v>
+        <v>57874</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>82158</v>
+        <v>81057</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.07838328179098031</v>
+        <v>0.07838328179098029</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06429876942986516</v>
+        <v>0.06507682230318165</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09238314215913875</v>
+        <v>0.09114586378287025</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>180</v>
@@ -6961,19 +6961,19 @@
         <v>99719</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>86905</v>
+        <v>84848</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>117444</v>
+        <v>115403</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.06232213703127702</v>
+        <v>0.06232213703127703</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05431361041894282</v>
+        <v>0.05302802557081533</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07339982724911348</v>
+        <v>0.07212405082863378</v>
       </c>
     </row>
     <row r="22">
@@ -6990,19 +6990,19 @@
         <v>672686</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>661388</v>
+        <v>662051</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>681947</v>
+        <v>681957</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9464570183648879</v>
+        <v>0.946457018364888</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9305605561688953</v>
+        <v>0.9314945705854242</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9594871637220904</v>
+        <v>0.9595018476540782</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1504</v>
@@ -7011,19 +7011,19 @@
         <v>797631</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>783285</v>
+        <v>783774</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>811167</v>
+        <v>810563</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8969034595983925</v>
+        <v>0.8969034595983923</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8807720050574609</v>
+        <v>0.8813225268205558</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9121244606635955</v>
+        <v>0.9114454473107704</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2465</v>
@@ -7032,19 +7032,19 @@
         <v>1470316</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1452292</v>
+        <v>1452010</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1485464</v>
+        <v>1487298</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9189150247104291</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9076503753030688</v>
+        <v>0.9074736466754594</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9283819440360936</v>
+        <v>0.9295283020779433</v>
       </c>
     </row>
     <row r="23">
